--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF745E1C-2C98-40A2-9855-05F9E34CDFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F0EFA-6F2C-4445-89F8-FAAC0817DAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1905,7 +1905,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,9 +2086,6 @@
       <c r="E10" s="21">
         <v>54</v>
       </c>
-      <c r="F10" s="21">
-        <v>54</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -2106,9 +2103,6 @@
       <c r="E11" s="21">
         <v>54</v>
       </c>
-      <c r="F11" s="21">
-        <v>54</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -2195,25 +2189,47 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
         <v>45032</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="B17" s="28">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29">
+        <v>17</v>
+      </c>
+      <c r="D17" s="28">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28">
+        <v>54</v>
+      </c>
+      <c r="F17" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>45033</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="28">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29">
+        <v>17</v>
+      </c>
+      <c r="D18" s="28">
+        <v>54</v>
+      </c>
+      <c r="E18" s="28">
+        <v>54</v>
+      </c>
+      <c r="F18" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45034</v>
       </c>
@@ -2222,7 +2238,7 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>45035</v>
       </c>
@@ -2231,7 +2247,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>45036</v>
       </c>
@@ -2240,7 +2256,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>45037</v>
       </c>
@@ -2249,7 +2265,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>45038</v>
       </c>
@@ -2258,7 +2274,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>45039</v>
       </c>
@@ -2267,7 +2283,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>45040</v>
       </c>
@@ -2276,7 +2292,7 @@
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>45041</v>
       </c>
@@ -2285,7 +2301,7 @@
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>45042</v>
       </c>
@@ -2294,7 +2310,7 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>45043</v>
       </c>
@@ -2303,7 +2319,7 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45044</v>
       </c>
@@ -2312,7 +2328,7 @@
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>45045</v>
       </c>
@@ -2321,7 +2337,7 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>45046</v>
       </c>
@@ -2330,17 +2346,17 @@
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F0EFA-6F2C-4445-89F8-FAAC0817DAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAD41E-9B1B-4049-9690-D3B44876FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,9 +205,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1345,10 +1342,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1905,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,215 +1923,215 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="26">
         <v>45017</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="27">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="28">
         <v>17</v>
       </c>
-      <c r="D2" s="21">
-        <v>54</v>
-      </c>
-      <c r="E2" s="21">
-        <v>54</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="D2" s="27">
+        <v>54</v>
+      </c>
+      <c r="E2" s="27">
+        <v>54</v>
+      </c>
+      <c r="F2" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="26">
         <v>45018</v>
       </c>
-      <c r="B3" s="21">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21">
-        <v>54</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="B3" s="27">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28">
+        <v>10</v>
+      </c>
+      <c r="D3" s="27">
+        <v>54</v>
+      </c>
+      <c r="E3" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="26">
         <v>45019</v>
       </c>
-      <c r="B4" s="21">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21">
-        <v>54</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>10</v>
+      </c>
+      <c r="D4" s="27">
+        <v>54</v>
+      </c>
+      <c r="E4" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="26">
         <v>45020</v>
       </c>
-      <c r="B5" s="21">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>10</v>
-      </c>
-      <c r="D5" s="21">
-        <v>54</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28">
+        <v>10</v>
+      </c>
+      <c r="D5" s="27">
+        <v>54</v>
+      </c>
+      <c r="E5" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="26">
         <v>45021</v>
       </c>
-      <c r="B6" s="21">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21">
-        <v>54</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="B6" s="27">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28">
+        <v>10</v>
+      </c>
+      <c r="D6" s="27">
+        <v>54</v>
+      </c>
+      <c r="E6" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="26">
         <v>45022</v>
       </c>
-      <c r="B7" s="21">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>10</v>
-      </c>
-      <c r="D7" s="21">
-        <v>54</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28">
+        <v>10</v>
+      </c>
+      <c r="D7" s="27">
+        <v>54</v>
+      </c>
+      <c r="E7" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="26">
         <v>45023</v>
       </c>
-      <c r="B8" s="21">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>10</v>
-      </c>
-      <c r="D8" s="21">
-        <v>54</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="28">
+        <v>10</v>
+      </c>
+      <c r="D8" s="27">
+        <v>54</v>
+      </c>
+      <c r="E8" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="26">
         <v>45024</v>
       </c>
-      <c r="B9" s="21">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21">
-        <v>54</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+      <c r="C9" s="28">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27">
+        <v>54</v>
+      </c>
+      <c r="E9" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="26">
         <v>45025</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="27">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="28">
         <v>17</v>
       </c>
-      <c r="D10" s="21">
-        <v>54</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="D10" s="27">
+        <v>54</v>
+      </c>
+      <c r="E10" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="26">
         <v>45026</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="27">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="28">
         <v>17</v>
       </c>
-      <c r="D11" s="21">
-        <v>54</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="D11" s="27">
+        <v>54</v>
+      </c>
+      <c r="E11" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="26">
         <v>45027</v>
       </c>
-      <c r="B12" s="21">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11">
-        <v>10</v>
-      </c>
-      <c r="D12" s="21">
-        <v>54</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27">
+        <v>54</v>
+      </c>
+      <c r="E12" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="26">
         <v>45028</v>
       </c>
-      <c r="B13" s="21">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11">
-        <v>10</v>
-      </c>
-      <c r="D13" s="21">
-        <v>54</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="B13" s="27">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28">
+        <v>10</v>
+      </c>
+      <c r="D13" s="27">
+        <v>54</v>
+      </c>
+      <c r="E13" s="27">
         <v>54</v>
       </c>
     </row>
@@ -2156,87 +2153,95 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>45030</v>
       </c>
-      <c r="B15" s="28">
-        <v>2</v>
-      </c>
-      <c r="C15" s="29">
-        <v>10</v>
-      </c>
-      <c r="D15" s="28">
-        <v>54</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="B15" s="27">
+        <v>2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27">
+        <v>54</v>
+      </c>
+      <c r="E15" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>45031</v>
       </c>
-      <c r="B16" s="28">
-        <v>2</v>
-      </c>
-      <c r="C16" s="29">
-        <v>10</v>
-      </c>
-      <c r="D16" s="28">
-        <v>54</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="B16" s="27">
+        <v>2</v>
+      </c>
+      <c r="C16" s="28">
+        <v>10</v>
+      </c>
+      <c r="D16" s="27">
+        <v>54</v>
+      </c>
+      <c r="E16" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>45032</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>3</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>17</v>
       </c>
-      <c r="D17" s="28">
-        <v>54</v>
-      </c>
-      <c r="E17" s="28">
-        <v>54</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="D17" s="27">
+        <v>54</v>
+      </c>
+      <c r="E17" s="27">
+        <v>54</v>
+      </c>
+      <c r="F17" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>45033</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>3</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>17</v>
       </c>
-      <c r="D18" s="28">
-        <v>54</v>
-      </c>
-      <c r="E18" s="28">
-        <v>54</v>
-      </c>
-      <c r="F18" s="21">
+      <c r="D18" s="27">
+        <v>54</v>
+      </c>
+      <c r="E18" s="27">
+        <v>54</v>
+      </c>
+      <c r="F18" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="26">
         <v>45034</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="27">
+        <v>2</v>
+      </c>
+      <c r="C19" s="28">
+        <v>10</v>
+      </c>
+      <c r="D19" s="27">
+        <v>54</v>
+      </c>
+      <c r="E19" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
@@ -2352,11 +2357,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2381,27 +2386,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAD41E-9B1B-4049-9690-D3B44876FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C433C-F76B-47FC-AD92-2719291C2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,13 +2244,21 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="12">
         <v>45035</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23">

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C433C-F76B-47FC-AD92-2719291C2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D892D20E-5C7D-4140-90C8-EDC240E8C809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,13 +2261,21 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="26">
         <v>45036</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="27">
+        <v>2</v>
+      </c>
+      <c r="C21" s="28">
+        <v>10</v>
+      </c>
+      <c r="D21" s="27">
+        <v>54</v>
+      </c>
+      <c r="E21" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
@@ -2365,11 +2373,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D892D20E-5C7D-4140-90C8-EDC240E8C809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B96C76-EE91-450B-B394-35CE43286163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,13 +2278,21 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="26">
         <v>45037</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="B22" s="27">
+        <v>2</v>
+      </c>
+      <c r="C22" s="28">
+        <v>10</v>
+      </c>
+      <c r="D22" s="27">
+        <v>54</v>
+      </c>
+      <c r="E22" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
@@ -2373,11 +2381,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B96C76-EE91-450B-B394-35CE43286163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1571B0-5A91-4A77-83AB-0461CC16F21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E22"/>
+      <selection activeCell="A22" sqref="A22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,13 +2295,21 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="26">
         <v>45038</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="27">
+        <v>2</v>
+      </c>
+      <c r="C23" s="28">
+        <v>10</v>
+      </c>
+      <c r="D23" s="27">
+        <v>54</v>
+      </c>
+      <c r="E23" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
@@ -2381,11 +2389,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1571B0-5A91-4A77-83AB-0461CC16F21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EB605-ABAF-4204-BF98-EDED77ECE451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E23"/>
+      <selection activeCell="A23" sqref="A23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,13 +2312,21 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="A24" s="26">
         <v>45039</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="27">
+        <v>2</v>
+      </c>
+      <c r="C24" s="28">
+        <v>10</v>
+      </c>
+      <c r="D24" s="27">
+        <v>54</v>
+      </c>
+      <c r="E24" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
@@ -2389,11 +2397,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77EB605-ABAF-4204-BF98-EDED77ECE451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC8FCD-B6B6-4429-A53A-E48278B74791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,22 +2329,38 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="12">
         <v>45040</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="26">
         <v>45041</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="B26" s="27">
+        <v>2</v>
+      </c>
+      <c r="C26" s="28">
+        <v>10</v>
+      </c>
+      <c r="D26" s="27">
+        <v>54</v>
+      </c>
+      <c r="E26" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
@@ -2397,11 +2413,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC8FCD-B6B6-4429-A53A-E48278B74791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1830B79-23C2-4E93-8193-44478685F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+      <selection activeCell="A26" sqref="A26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,13 +2363,21 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="26">
         <v>45042</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="B27" s="27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="28">
+        <v>10</v>
+      </c>
+      <c r="D27" s="27">
+        <v>54</v>
+      </c>
+      <c r="E27" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
@@ -2413,11 +2421,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1830B79-23C2-4E93-8193-44478685F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1492D8-8ACD-4DEE-8E67-7951351463F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E27"/>
+      <selection activeCell="A27" sqref="A27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,13 +2380,21 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="26">
         <v>45043</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="27">
+        <v>2</v>
+      </c>
+      <c r="C28" s="28">
+        <v>10</v>
+      </c>
+      <c r="D28" s="27">
+        <v>54</v>
+      </c>
+      <c r="E28" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
@@ -2421,11 +2429,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1492D8-8ACD-4DEE-8E67-7951351463F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06701868-714F-466F-9AD7-0BE786C20858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E28"/>
+      <selection activeCell="A28" sqref="A28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,13 +2397,21 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="26">
         <v>45044</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="B29" s="27">
+        <v>2</v>
+      </c>
+      <c r="C29" s="28">
+        <v>10</v>
+      </c>
+      <c r="D29" s="27">
+        <v>54</v>
+      </c>
+      <c r="E29" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
@@ -2429,11 +2437,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06701868-714F-466F-9AD7-0BE786C20858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33695A45-B101-4460-88E3-323B9DA47830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,13 +2414,21 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="26">
         <v>45045</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="B30" s="27">
+        <v>1</v>
+      </c>
+      <c r="C30" s="28">
+        <v>5</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="27">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
@@ -2437,11 +2445,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33695A45-B101-4460-88E3-323B9DA47830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A315A-66EC-42A8-825B-C7AB107B869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,12 +92,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,19 +194,10 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,10 +1327,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1901,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,215 +1908,215 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="23">
         <v>45017</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="24">
         <v>3</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="27">
-        <v>54</v>
-      </c>
-      <c r="E2" s="27">
-        <v>54</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="D2" s="24">
+        <v>54</v>
+      </c>
+      <c r="E2" s="24">
+        <v>54</v>
+      </c>
+      <c r="F2" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="23">
         <v>45018</v>
       </c>
-      <c r="B3" s="27">
-        <v>2</v>
-      </c>
-      <c r="C3" s="28">
-        <v>10</v>
-      </c>
-      <c r="D3" s="27">
-        <v>54</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25">
+        <v>10</v>
+      </c>
+      <c r="D3" s="24">
+        <v>54</v>
+      </c>
+      <c r="E3" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="23">
         <v>45019</v>
       </c>
-      <c r="B4" s="27">
-        <v>2</v>
-      </c>
-      <c r="C4" s="28">
-        <v>10</v>
-      </c>
-      <c r="D4" s="27">
-        <v>54</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25">
+        <v>10</v>
+      </c>
+      <c r="D4" s="24">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="23">
         <v>45020</v>
       </c>
-      <c r="B5" s="27">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28">
-        <v>10</v>
-      </c>
-      <c r="D5" s="27">
-        <v>54</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="B5" s="24">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24">
+        <v>54</v>
+      </c>
+      <c r="E5" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>45021</v>
       </c>
-      <c r="B6" s="27">
-        <v>2</v>
-      </c>
-      <c r="C6" s="28">
-        <v>10</v>
-      </c>
-      <c r="D6" s="27">
-        <v>54</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="24">
+        <v>54</v>
+      </c>
+      <c r="E6" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="23">
         <v>45022</v>
       </c>
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-      <c r="C7" s="28">
-        <v>10</v>
-      </c>
-      <c r="D7" s="27">
-        <v>54</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="B7" s="24">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24">
+        <v>54</v>
+      </c>
+      <c r="E7" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <v>45023</v>
       </c>
-      <c r="B8" s="27">
-        <v>2</v>
-      </c>
-      <c r="C8" s="28">
-        <v>10</v>
-      </c>
-      <c r="D8" s="27">
-        <v>54</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="B8" s="24">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25">
+        <v>10</v>
+      </c>
+      <c r="D8" s="24">
+        <v>54</v>
+      </c>
+      <c r="E8" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="23">
         <v>45024</v>
       </c>
-      <c r="B9" s="27">
-        <v>2</v>
-      </c>
-      <c r="C9" s="28">
-        <v>10</v>
-      </c>
-      <c r="D9" s="27">
-        <v>54</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25">
+        <v>10</v>
+      </c>
+      <c r="D9" s="24">
+        <v>54</v>
+      </c>
+      <c r="E9" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="23">
         <v>45025</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="24">
         <v>3</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>17</v>
       </c>
-      <c r="D10" s="27">
-        <v>54</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="24">
+        <v>54</v>
+      </c>
+      <c r="E10" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <v>45026</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="24">
         <v>3</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>17</v>
       </c>
-      <c r="D11" s="27">
-        <v>54</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="D11" s="24">
+        <v>54</v>
+      </c>
+      <c r="E11" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="23">
         <v>45027</v>
       </c>
-      <c r="B12" s="27">
-        <v>2</v>
-      </c>
-      <c r="C12" s="28">
-        <v>10</v>
-      </c>
-      <c r="D12" s="27">
-        <v>54</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+      <c r="C12" s="25">
+        <v>10</v>
+      </c>
+      <c r="D12" s="24">
+        <v>54</v>
+      </c>
+      <c r="E12" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="23">
         <v>45028</v>
       </c>
-      <c r="B13" s="27">
-        <v>2</v>
-      </c>
-      <c r="C13" s="28">
-        <v>10</v>
-      </c>
-      <c r="D13" s="27">
-        <v>54</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="B13" s="24">
+        <v>2</v>
+      </c>
+      <c r="C13" s="25">
+        <v>10</v>
+      </c>
+      <c r="D13" s="24">
+        <v>54</v>
+      </c>
+      <c r="E13" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2153,93 +2138,93 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="23">
         <v>45030</v>
       </c>
-      <c r="B15" s="27">
-        <v>2</v>
-      </c>
-      <c r="C15" s="28">
-        <v>10</v>
-      </c>
-      <c r="D15" s="27">
-        <v>54</v>
-      </c>
-      <c r="E15" s="27">
+      <c r="B15" s="24">
+        <v>2</v>
+      </c>
+      <c r="C15" s="25">
+        <v>10</v>
+      </c>
+      <c r="D15" s="24">
+        <v>54</v>
+      </c>
+      <c r="E15" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="23">
         <v>45031</v>
       </c>
-      <c r="B16" s="27">
-        <v>2</v>
-      </c>
-      <c r="C16" s="28">
-        <v>10</v>
-      </c>
-      <c r="D16" s="27">
-        <v>54</v>
-      </c>
-      <c r="E16" s="27">
+      <c r="B16" s="24">
+        <v>2</v>
+      </c>
+      <c r="C16" s="25">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24">
+        <v>54</v>
+      </c>
+      <c r="E16" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="23">
         <v>45032</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="24">
         <v>3</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="27">
-        <v>54</v>
-      </c>
-      <c r="E17" s="27">
-        <v>54</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="D17" s="24">
+        <v>54</v>
+      </c>
+      <c r="E17" s="24">
+        <v>54</v>
+      </c>
+      <c r="F17" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="23">
         <v>45033</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="24">
         <v>3</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="27">
-        <v>54</v>
-      </c>
-      <c r="E18" s="27">
-        <v>54</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="D18" s="24">
+        <v>54</v>
+      </c>
+      <c r="E18" s="24">
+        <v>54</v>
+      </c>
+      <c r="F18" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="23">
         <v>45034</v>
       </c>
-      <c r="B19" s="27">
-        <v>2</v>
-      </c>
-      <c r="C19" s="28">
-        <v>10</v>
-      </c>
-      <c r="D19" s="27">
-        <v>54</v>
-      </c>
-      <c r="E19" s="27">
+      <c r="B19" s="24">
+        <v>2</v>
+      </c>
+      <c r="C19" s="25">
+        <v>10</v>
+      </c>
+      <c r="D19" s="24">
+        <v>54</v>
+      </c>
+      <c r="E19" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2261,70 +2246,70 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="23">
         <v>45036</v>
       </c>
-      <c r="B21" s="27">
-        <v>2</v>
-      </c>
-      <c r="C21" s="28">
-        <v>10</v>
-      </c>
-      <c r="D21" s="27">
-        <v>54</v>
-      </c>
-      <c r="E21" s="27">
+      <c r="B21" s="24">
+        <v>2</v>
+      </c>
+      <c r="C21" s="25">
+        <v>10</v>
+      </c>
+      <c r="D21" s="24">
+        <v>54</v>
+      </c>
+      <c r="E21" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="23">
         <v>45037</v>
       </c>
-      <c r="B22" s="27">
-        <v>2</v>
-      </c>
-      <c r="C22" s="28">
-        <v>10</v>
-      </c>
-      <c r="D22" s="27">
-        <v>54</v>
-      </c>
-      <c r="E22" s="27">
+      <c r="B22" s="24">
+        <v>2</v>
+      </c>
+      <c r="C22" s="25">
+        <v>10</v>
+      </c>
+      <c r="D22" s="24">
+        <v>54</v>
+      </c>
+      <c r="E22" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="23">
         <v>45038</v>
       </c>
-      <c r="B23" s="27">
-        <v>2</v>
-      </c>
-      <c r="C23" s="28">
-        <v>10</v>
-      </c>
-      <c r="D23" s="27">
-        <v>54</v>
-      </c>
-      <c r="E23" s="27">
+      <c r="B23" s="24">
+        <v>2</v>
+      </c>
+      <c r="C23" s="25">
+        <v>10</v>
+      </c>
+      <c r="D23" s="24">
+        <v>54</v>
+      </c>
+      <c r="E23" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="23">
         <v>45039</v>
       </c>
-      <c r="B24" s="27">
-        <v>2</v>
-      </c>
-      <c r="C24" s="28">
-        <v>10</v>
-      </c>
-      <c r="D24" s="27">
-        <v>54</v>
-      </c>
-      <c r="E24" s="27">
+      <c r="B24" s="24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="25">
+        <v>10</v>
+      </c>
+      <c r="D24" s="24">
+        <v>54</v>
+      </c>
+      <c r="E24" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2346,87 +2331,87 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="23">
         <v>45041</v>
       </c>
-      <c r="B26" s="27">
-        <v>2</v>
-      </c>
-      <c r="C26" s="28">
-        <v>10</v>
-      </c>
-      <c r="D26" s="27">
-        <v>54</v>
-      </c>
-      <c r="E26" s="27">
+      <c r="B26" s="24">
+        <v>2</v>
+      </c>
+      <c r="C26" s="25">
+        <v>10</v>
+      </c>
+      <c r="D26" s="24">
+        <v>54</v>
+      </c>
+      <c r="E26" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="23">
         <v>45042</v>
       </c>
-      <c r="B27" s="27">
-        <v>2</v>
-      </c>
-      <c r="C27" s="28">
-        <v>10</v>
-      </c>
-      <c r="D27" s="27">
-        <v>54</v>
-      </c>
-      <c r="E27" s="27">
+      <c r="B27" s="24">
+        <v>2</v>
+      </c>
+      <c r="C27" s="25">
+        <v>10</v>
+      </c>
+      <c r="D27" s="24">
+        <v>54</v>
+      </c>
+      <c r="E27" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="23">
         <v>45043</v>
       </c>
-      <c r="B28" s="27">
-        <v>2</v>
-      </c>
-      <c r="C28" s="28">
-        <v>10</v>
-      </c>
-      <c r="D28" s="27">
-        <v>54</v>
-      </c>
-      <c r="E28" s="27">
+      <c r="B28" s="24">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25">
+        <v>10</v>
+      </c>
+      <c r="D28" s="24">
+        <v>54</v>
+      </c>
+      <c r="E28" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="23">
         <v>45044</v>
       </c>
-      <c r="B29" s="27">
-        <v>2</v>
-      </c>
-      <c r="C29" s="28">
-        <v>10</v>
-      </c>
-      <c r="D29" s="27">
-        <v>54</v>
-      </c>
-      <c r="E29" s="27">
+      <c r="B29" s="24">
+        <v>2</v>
+      </c>
+      <c r="C29" s="25">
+        <v>10</v>
+      </c>
+      <c r="D29" s="24">
+        <v>54</v>
+      </c>
+      <c r="E29" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="23">
         <v>45045</v>
       </c>
-      <c r="B30" s="27">
-        <v>1</v>
-      </c>
-      <c r="C30" s="28">
+      <c r="B30" s="24">
+        <v>1</v>
+      </c>
+      <c r="C30" s="25">
         <v>5</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2434,10 +2419,18 @@
       <c r="A31" s="23">
         <v>45046</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="B31" s="24">
+        <v>2</v>
+      </c>
+      <c r="C31" s="25">
+        <v>10</v>
+      </c>
+      <c r="D31" s="24">
+        <v>54</v>
+      </c>
+      <c r="E31" s="24">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2445,11 +2438,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2474,27 +2467,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,23 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A315A-66EC-42A8-825B-C7AB107B869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58A60B0-82B5-43AC-B09F-45F453CA2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
-    <sheet name="Relatorio" sheetId="5" r:id="rId5"/>
+    <sheet name="Maio" sheetId="7" r:id="rId5"/>
+    <sheet name="Junho" sheetId="8" r:id="rId6"/>
+    <sheet name="Julho" sheetId="9" r:id="rId7"/>
+    <sheet name="Relatorio" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -129,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +207,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1886,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,6 +2472,619 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF362BD4-39C9-4977-8DE8-51CECB6AB543}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>45048</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>45049</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>45050</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>45051</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>45052</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>45054</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>45056</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>45057</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>45058</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>45059</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>45060</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>45061</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>45062</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>45064</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>45068</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>45069</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>45070</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>45071</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>45072</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>45073</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>45074</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>45077</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5">
+        <f>SUM(B2:B31)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>5</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6731FE-55C1-4DAD-9F83-201FE0BE1E5B}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5">
+        <f>SUM(B2:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4F78C7-DCD2-492F-B3E5-B7F41EDD0700}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58A60B0-82B5-43AC-B09F-45F453CA2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803D59B-E2DA-41BD-A423-CB89D8AD9D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>54      54      54</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,11 +131,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,22 +232,28 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1377,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1899,21 +1934,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1923,12 +1958,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>45017</v>
       </c>
@@ -1938,17 +1973,12 @@
       <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="24">
-        <v>54</v>
-      </c>
-      <c r="E2" s="24">
-        <v>54</v>
-      </c>
-      <c r="F2" s="24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>45018</v>
       </c>
@@ -1965,7 +1995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>45019</v>
       </c>
@@ -1982,7 +2012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>45020</v>
       </c>
@@ -1999,7 +2029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>45021</v>
       </c>
@@ -2016,7 +2046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>45022</v>
       </c>
@@ -2033,7 +2063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45023</v>
       </c>
@@ -2050,7 +2080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>45024</v>
       </c>
@@ -2067,7 +2097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>45025</v>
       </c>
@@ -2084,7 +2114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>45026</v>
       </c>
@@ -2101,7 +2131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>45027</v>
       </c>
@@ -2118,7 +2148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>45028</v>
       </c>
@@ -2135,7 +2165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>45029</v>
       </c>
@@ -2152,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>45030</v>
       </c>
@@ -2169,7 +2199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>45031</v>
       </c>
@@ -2186,7 +2216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>45032</v>
       </c>
@@ -2196,17 +2226,12 @@
       <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="24">
-        <v>54</v>
-      </c>
-      <c r="E17" s="24">
-        <v>54</v>
-      </c>
-      <c r="F17" s="24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>45033</v>
       </c>
@@ -2216,17 +2241,12 @@
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="24">
-        <v>54</v>
-      </c>
-      <c r="E18" s="24">
-        <v>54</v>
-      </c>
-      <c r="F18" s="24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45034</v>
       </c>
@@ -2243,7 +2263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45035</v>
       </c>
@@ -2260,7 +2280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>45036</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>45037</v>
       </c>
@@ -2294,7 +2314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>45038</v>
       </c>
@@ -2311,7 +2331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>45039</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>45040</v>
       </c>
@@ -2345,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>45041</v>
       </c>
@@ -2362,7 +2382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>45042</v>
       </c>
@@ -2379,7 +2399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>45043</v>
       </c>
@@ -2396,7 +2416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45044</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>45045</v>
       </c>
@@ -2430,7 +2450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>45046</v>
       </c>
@@ -2447,7 +2467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -2463,11 +2483,14 @@
       <c r="E32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="145" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2475,7 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF362BD4-39C9-4977-8DE8-51CECB6AB543}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
@@ -2497,10 +2520,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2520,274 +2543,274 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>45048</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>45049</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>45050</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>45051</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>45052</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>45053</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>45054</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="26">
         <v>45055</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="26">
         <v>45056</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>45057</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>45058</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="26">
         <v>45059</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="26">
         <v>45060</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="26">
         <v>45061</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="26">
         <v>45062</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="26">
         <v>45063</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="26">
         <v>45064</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="26">
         <v>45065</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="26">
         <v>45066</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="26">
         <v>45067</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="26">
         <v>45068</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="26">
         <v>45069</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="26">
         <v>45070</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="26">
         <v>45071</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="26">
         <v>45072</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <v>45073</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="26">
         <v>45074</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="26">
         <v>45075</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="26">
         <v>45076</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="26">
         <v>45077</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2832,220 +2855,220 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -3095,27 +3118,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803D59B-E2DA-41BD-A423-CB89D8AD9D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2367AFF0-E186-4002-93A3-EBCDDCEA63D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -247,13 +247,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1936,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
@@ -1973,10 +1973,10 @@
       <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -2226,10 +2226,10 @@
       <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
@@ -2241,10 +2241,10 @@
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -2498,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF362BD4-39C9-4977-8DE8-51CECB6AB543}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,13 +2543,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="9">
         <v>45048</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
+        <v>54</v>
+      </c>
+      <c r="E3" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
@@ -2818,11 +2826,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3118,27 +3126,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2367AFF0-E186-4002-93A3-EBCDDCEA63D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C49A32-9E70-474B-8D6A-A8615672E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2499,7 +2499,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,13 +2560,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="9">
         <v>45049</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21">
+        <v>54</v>
+      </c>
+      <c r="E4" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -2826,11 +2834,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C49A32-9E70-474B-8D6A-A8615672E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692967C7-0B34-4535-80EE-04E55D722FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2499,7 +2499,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,13 +2577,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="9">
         <v>45050</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="21">
+        <v>54</v>
+      </c>
+      <c r="E5" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
@@ -2834,11 +2842,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692967C7-0B34-4535-80EE-04E55D722FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D473AB-5AA7-4D17-891A-520F1E321558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -58,8 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -161,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +255,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2499,19 +2513,19 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="37" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2526,7 +2540,7 @@
       <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="35">
         <v>45047</v>
       </c>
       <c r="B2" s="21">
@@ -2543,7 +2557,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="35">
         <v>45048</v>
       </c>
       <c r="B3" s="21">
@@ -2560,7 +2574,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="35">
         <v>45049</v>
       </c>
       <c r="B4" s="21">
@@ -2577,7 +2591,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="35">
         <v>45050</v>
       </c>
       <c r="B5" s="21">
@@ -2594,34 +2608,58 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="35">
         <v>45051</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="35">
         <v>45052</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="21">
+        <v>54</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="38">
         <v>45053</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="36">
         <v>45054</v>
       </c>
       <c r="B9" s="27"/>
@@ -2630,7 +2668,7 @@
       <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="36">
         <v>45055</v>
       </c>
       <c r="B10" s="27"/>
@@ -2639,7 +2677,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="36">
         <v>45056</v>
       </c>
       <c r="B11" s="27"/>
@@ -2648,7 +2686,7 @@
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="36">
         <v>45057</v>
       </c>
       <c r="B12" s="27"/>
@@ -2657,7 +2695,7 @@
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="36">
         <v>45058</v>
       </c>
       <c r="B13" s="27"/>
@@ -2666,7 +2704,7 @@
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="36">
         <v>45059</v>
       </c>
       <c r="B14" s="29"/>
@@ -2675,7 +2713,7 @@
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="36">
         <v>45060</v>
       </c>
       <c r="B15" s="27"/>
@@ -2684,7 +2722,7 @@
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="36">
         <v>45061</v>
       </c>
       <c r="B16" s="27"/>
@@ -2693,7 +2731,7 @@
       <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="36">
         <v>45062</v>
       </c>
       <c r="B17" s="27"/>
@@ -2702,7 +2740,7 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="36">
         <v>45063</v>
       </c>
       <c r="B18" s="27"/>
@@ -2711,7 +2749,7 @@
       <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="36">
         <v>45064</v>
       </c>
       <c r="B19" s="27"/>
@@ -2720,7 +2758,7 @@
       <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="36">
         <v>45065</v>
       </c>
       <c r="B20" s="29"/>
@@ -2729,7 +2767,7 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="36">
         <v>45066</v>
       </c>
       <c r="B21" s="27"/>
@@ -2738,7 +2776,7 @@
       <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="36">
         <v>45067</v>
       </c>
       <c r="B22" s="27"/>
@@ -2747,7 +2785,7 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="36">
         <v>45068</v>
       </c>
       <c r="B23" s="27"/>
@@ -2756,7 +2794,7 @@
       <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="36">
         <v>45069</v>
       </c>
       <c r="B24" s="27"/>
@@ -2765,7 +2803,7 @@
       <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="36">
         <v>45070</v>
       </c>
       <c r="B25" s="29"/>
@@ -2774,7 +2812,7 @@
       <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="36">
         <v>45071</v>
       </c>
       <c r="B26" s="27"/>
@@ -2783,7 +2821,7 @@
       <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="36">
         <v>45072</v>
       </c>
       <c r="B27" s="27"/>
@@ -2792,7 +2830,7 @@
       <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="36">
         <v>45073</v>
       </c>
       <c r="B28" s="27"/>
@@ -2801,7 +2839,7 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="36">
         <v>45074</v>
       </c>
       <c r="B29" s="27"/>
@@ -2810,7 +2848,7 @@
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="36">
         <v>45075</v>
       </c>
       <c r="B30" s="27"/>
@@ -2819,7 +2857,7 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="36">
         <v>45076</v>
       </c>
       <c r="B31" s="27"/>
@@ -2828,7 +2866,7 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="36">
         <v>45077</v>
       </c>
       <c r="B32" s="27"/>
@@ -2837,16 +2875,16 @@
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2856,6 +2894,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D473AB-5AA7-4D17-891A-520F1E321558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E14D7-9CD2-459B-99C7-873C496BD13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -60,7 +60,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,6 +245,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,19 +268,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,10 +1391,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1972,10 +1972,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -1987,10 +1987,10 @@
       <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -2240,10 +2240,10 @@
       <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
@@ -2255,10 +2255,10 @@
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -2513,19 +2513,19 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="33" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2534,13 +2534,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>45047</v>
       </c>
       <c r="B2" s="21">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>45048</v>
       </c>
       <c r="B3" s="21">
@@ -2574,7 +2574,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <v>45049</v>
       </c>
       <c r="B4" s="21">
@@ -2591,7 +2591,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>45050</v>
       </c>
       <c r="B5" s="21">
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <v>45051</v>
       </c>
       <c r="B6" s="21">
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>45052</v>
       </c>
       <c r="B7" s="21">
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="34">
         <v>45053</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2659,16 +2659,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="34">
         <v>45054</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="32">
         <v>45055</v>
       </c>
       <c r="B10" s="27"/>
@@ -2677,7 +2685,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="32">
         <v>45056</v>
       </c>
       <c r="B11" s="27"/>
@@ -2686,7 +2694,7 @@
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="32">
         <v>45057</v>
       </c>
       <c r="B12" s="27"/>
@@ -2695,7 +2703,7 @@
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="32">
         <v>45058</v>
       </c>
       <c r="B13" s="27"/>
@@ -2704,7 +2712,7 @@
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="32">
         <v>45059</v>
       </c>
       <c r="B14" s="29"/>
@@ -2713,7 +2721,7 @@
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="32">
         <v>45060</v>
       </c>
       <c r="B15" s="27"/>
@@ -2722,7 +2730,7 @@
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="32">
         <v>45061</v>
       </c>
       <c r="B16" s="27"/>
@@ -2731,7 +2739,7 @@
       <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="A17" s="32">
         <v>45062</v>
       </c>
       <c r="B17" s="27"/>
@@ -2740,7 +2748,7 @@
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="32">
         <v>45063</v>
       </c>
       <c r="B18" s="27"/>
@@ -2749,7 +2757,7 @@
       <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="32">
         <v>45064</v>
       </c>
       <c r="B19" s="27"/>
@@ -2758,7 +2766,7 @@
       <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="32">
         <v>45065</v>
       </c>
       <c r="B20" s="29"/>
@@ -2767,7 +2775,7 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="32">
         <v>45066</v>
       </c>
       <c r="B21" s="27"/>
@@ -2776,7 +2784,7 @@
       <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="32">
         <v>45067</v>
       </c>
       <c r="B22" s="27"/>
@@ -2785,7 +2793,7 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+      <c r="A23" s="32">
         <v>45068</v>
       </c>
       <c r="B23" s="27"/>
@@ -2794,7 +2802,7 @@
       <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+      <c r="A24" s="32">
         <v>45069</v>
       </c>
       <c r="B24" s="27"/>
@@ -2803,7 +2811,7 @@
       <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+      <c r="A25" s="32">
         <v>45070</v>
       </c>
       <c r="B25" s="29"/>
@@ -2812,7 +2820,7 @@
       <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="32">
         <v>45071</v>
       </c>
       <c r="B26" s="27"/>
@@ -2821,7 +2829,7 @@
       <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="A27" s="32">
         <v>45072</v>
       </c>
       <c r="B27" s="27"/>
@@ -2830,7 +2838,7 @@
       <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+      <c r="A28" s="32">
         <v>45073</v>
       </c>
       <c r="B28" s="27"/>
@@ -2839,7 +2847,7 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="A29" s="32">
         <v>45074</v>
       </c>
       <c r="B29" s="27"/>
@@ -2848,7 +2856,7 @@
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="32">
         <v>45075</v>
       </c>
       <c r="B30" s="27"/>
@@ -2857,7 +2865,7 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="32">
         <v>45076</v>
       </c>
       <c r="B31" s="27"/>
@@ -2866,7 +2874,7 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="32">
         <v>45077</v>
       </c>
       <c r="B32" s="27"/>
@@ -2875,7 +2883,7 @@
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
@@ -2918,10 +2926,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
@@ -3181,27 +3189,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E14D7-9CD2-459B-99C7-873C496BD13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4CB302-EAAD-4427-AC48-4467D842E235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,31 +2676,55 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="34">
         <v>45055</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="34">
         <v>45056</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>45057</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="21">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>10</v>
+      </c>
+      <c r="D12" s="21">
+        <v>54</v>
+      </c>
+      <c r="E12" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -2888,11 +2912,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4CB302-EAAD-4427-AC48-4467D842E235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9685B2BB-CB37-4733-9369-8E5239376F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="1575" windowWidth="11730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,22 +2727,38 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>45058</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="21">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>10</v>
+      </c>
+      <c r="D13" s="21">
+        <v>54</v>
+      </c>
+      <c r="E13" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>45059</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="21">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21">
+        <v>54</v>
+      </c>
+      <c r="E14" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
@@ -2912,11 +2928,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9685B2BB-CB37-4733-9369-8E5239376F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72ED597-228A-463C-98AE-C36047DD1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="1575" windowWidth="11730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,31 +2761,55 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>45060</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>10</v>
+      </c>
+      <c r="D15" s="21">
+        <v>54</v>
+      </c>
+      <c r="E15" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>45061</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="21">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21">
+        <v>54</v>
+      </c>
+      <c r="E16" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>45062</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="21">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21">
+        <v>54</v>
+      </c>
+      <c r="E17" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
@@ -2928,11 +2952,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72ED597-228A-463C-98AE-C36047DD1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D2F711-996E-4663-8230-95787ED9B61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,19 +244,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,6 +256,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,10 +1390,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1972,10 +1971,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -1987,10 +1986,10 @@
       <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -2240,10 +2239,10 @@
       <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
@@ -2255,10 +2254,10 @@
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -2513,19 +2512,19 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="38" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2534,13 +2533,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="35">
         <v>45047</v>
       </c>
       <c r="B2" s="21">
@@ -2557,7 +2556,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="35">
         <v>45048</v>
       </c>
       <c r="B3" s="21">
@@ -2574,7 +2573,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="35">
         <v>45049</v>
       </c>
       <c r="B4" s="21">
@@ -2591,7 +2590,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="35">
         <v>45050</v>
       </c>
       <c r="B5" s="21">
@@ -2608,7 +2607,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="35">
         <v>45051</v>
       </c>
       <c r="B6" s="21">
@@ -2625,7 +2624,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="35">
         <v>45052</v>
       </c>
       <c r="B7" s="21">
@@ -2642,7 +2641,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="36">
         <v>45053</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2659,7 +2658,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="36">
         <v>45054</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -2676,7 +2675,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="36">
         <v>45055</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2693,7 +2692,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="36">
         <v>45056</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -2710,7 +2709,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="35">
         <v>45057</v>
       </c>
       <c r="B12" s="21">
@@ -2727,7 +2726,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="35">
         <v>45058</v>
       </c>
       <c r="B13" s="21">
@@ -2744,7 +2743,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="35">
         <v>45059</v>
       </c>
       <c r="B14" s="21">
@@ -2761,7 +2760,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="35">
         <v>45060</v>
       </c>
       <c r="B15" s="21">
@@ -2778,7 +2777,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="35">
         <v>45061</v>
       </c>
       <c r="B16" s="21">
@@ -2795,7 +2794,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="35">
         <v>45062</v>
       </c>
       <c r="B17" s="21">
@@ -2812,16 +2811,24 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="35">
         <v>45063</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="21">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>10</v>
+      </c>
+      <c r="D18" s="21">
+        <v>54</v>
+      </c>
+      <c r="E18" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="37">
         <v>45064</v>
       </c>
       <c r="B19" s="27"/>
@@ -2830,7 +2837,7 @@
       <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="37">
         <v>45065</v>
       </c>
       <c r="B20" s="29"/>
@@ -2839,7 +2846,7 @@
       <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="37">
         <v>45066</v>
       </c>
       <c r="B21" s="27"/>
@@ -2848,7 +2855,7 @@
       <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="37">
         <v>45067</v>
       </c>
       <c r="B22" s="27"/>
@@ -2857,7 +2864,7 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="37">
         <v>45068</v>
       </c>
       <c r="B23" s="27"/>
@@ -2866,7 +2873,7 @@
       <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="37">
         <v>45069</v>
       </c>
       <c r="B24" s="27"/>
@@ -2875,7 +2882,7 @@
       <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="A25" s="37">
         <v>45070</v>
       </c>
       <c r="B25" s="29"/>
@@ -2884,7 +2891,7 @@
       <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="37">
         <v>45071</v>
       </c>
       <c r="B26" s="27"/>
@@ -2893,7 +2900,7 @@
       <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="37">
         <v>45072</v>
       </c>
       <c r="B27" s="27"/>
@@ -2902,7 +2909,7 @@
       <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="37">
         <v>45073</v>
       </c>
       <c r="B28" s="27"/>
@@ -2911,7 +2918,7 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="37">
         <v>45074</v>
       </c>
       <c r="B29" s="27"/>
@@ -2920,7 +2927,7 @@
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="37">
         <v>45075</v>
       </c>
       <c r="B30" s="27"/>
@@ -2929,7 +2936,7 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="37">
         <v>45076</v>
       </c>
       <c r="B31" s="27"/>
@@ -2938,7 +2945,7 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="37">
         <v>45077</v>
       </c>
       <c r="B32" s="27"/>
@@ -2947,16 +2954,16 @@
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2990,10 +2997,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
@@ -3253,27 +3260,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72ED597-228A-463C-98AE-C36047DD1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <sheet name="Julho" sheetId="9" r:id="rId7"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -57,10 +56,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,19 +243,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,7 +288,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +326,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,23 +361,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,26 +396,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,21 +571,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -632,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -643,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -654,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -665,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -676,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -687,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -698,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -709,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -720,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -731,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -742,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -753,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -764,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -775,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -786,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -797,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -808,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -819,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -830,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -841,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -852,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -863,7 +827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -874,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -885,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -896,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -907,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -918,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -929,7 +893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -940,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -951,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -962,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -973,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -986,19 +950,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -1007,21 +971,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -1043,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -1054,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -1065,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -1076,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -1087,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1098,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1109,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1120,7 +1084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1131,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1142,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1153,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1164,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1175,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1186,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1197,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1208,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1219,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1230,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1241,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1252,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1263,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1274,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1285,7 +1249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1296,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1307,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>44983</v>
       </c>
@@ -1318,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1329,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1340,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1317,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1365,23 +1329,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1360,7 @@
       </c>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1413,7 +1377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1430,7 +1394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1447,7 +1411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1464,7 +1428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1481,7 +1445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1498,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1515,7 +1479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1532,7 +1496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1549,7 +1513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1566,7 +1530,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1583,7 +1547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1600,7 +1564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1617,7 +1581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1634,7 +1598,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1651,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1668,7 +1632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1685,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1702,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1719,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1736,7 +1700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1753,7 +1717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1770,7 +1734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1787,7 +1751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1804,7 +1768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1821,7 +1785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>45011</v>
       </c>
@@ -1838,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>45012</v>
       </c>
@@ -1855,7 +1819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1872,7 +1836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1889,7 +1853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>45015</v>
       </c>
@@ -1906,7 +1870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45016</v>
       </c>
@@ -1923,7 +1887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1947,22 +1911,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1977,7 +1941,7 @@
       </c>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>45017</v>
       </c>
@@ -1992,7 +1956,7 @@
       </c>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>45018</v>
       </c>
@@ -2009,7 +1973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>45019</v>
       </c>
@@ -2026,7 +1990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>45020</v>
       </c>
@@ -2043,7 +2007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>45021</v>
       </c>
@@ -2060,7 +2024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>45022</v>
       </c>
@@ -2077,7 +2041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>45023</v>
       </c>
@@ -2094,7 +2058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>45024</v>
       </c>
@@ -2111,7 +2075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>45025</v>
       </c>
@@ -2128,7 +2092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>45026</v>
       </c>
@@ -2145,7 +2109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>45027</v>
       </c>
@@ -2162,7 +2126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>45028</v>
       </c>
@@ -2179,7 +2143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>45029</v>
       </c>
@@ -2196,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>45030</v>
       </c>
@@ -2213,7 +2177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>45031</v>
       </c>
@@ -2230,7 +2194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>45032</v>
       </c>
@@ -2245,7 +2209,7 @@
       </c>
       <c r="E17" s="37"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>45033</v>
       </c>
@@ -2260,7 +2224,7 @@
       </c>
       <c r="E18" s="37"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>45034</v>
       </c>
@@ -2277,7 +2241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>45035</v>
       </c>
@@ -2294,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>45036</v>
       </c>
@@ -2311,7 +2275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>45037</v>
       </c>
@@ -2328,7 +2292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>45038</v>
       </c>
@@ -2345,7 +2309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>45039</v>
       </c>
@@ -2362,7 +2326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>45040</v>
       </c>
@@ -2379,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>45041</v>
       </c>
@@ -2396,7 +2360,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>45042</v>
       </c>
@@ -2413,7 +2377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>45043</v>
       </c>
@@ -2430,7 +2394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>45044</v>
       </c>
@@ -2447,7 +2411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>45045</v>
       </c>
@@ -2464,7 +2428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>45046</v>
       </c>
@@ -2481,7 +2445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -2509,22 +2473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF362BD4-39C9-4977-8DE8-51CECB6AB543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
@@ -2539,7 +2503,7 @@
       </c>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>45047</v>
       </c>
@@ -2556,7 +2520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>45048</v>
       </c>
@@ -2573,7 +2537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>45049</v>
       </c>
@@ -2590,7 +2554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>45050</v>
       </c>
@@ -2607,7 +2571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>45051</v>
       </c>
@@ -2624,7 +2588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>45052</v>
       </c>
@@ -2641,8 +2605,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
         <v>45053</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2658,8 +2622,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
         <v>45054</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -2675,8 +2639,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
         <v>45055</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2692,8 +2656,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
         <v>45056</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -2709,7 +2673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>45057</v>
       </c>
@@ -2726,7 +2690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>45058</v>
       </c>
@@ -2743,7 +2707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>45059</v>
       </c>
@@ -2760,7 +2724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>45060</v>
       </c>
@@ -2777,7 +2741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>45061</v>
       </c>
@@ -2794,7 +2758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>45062</v>
       </c>
@@ -2811,26 +2775,42 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
         <v>45063</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="B18" s="21">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>10</v>
+      </c>
+      <c r="D18" s="21">
+        <v>54</v>
+      </c>
+      <c r="E18" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
         <v>45064</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="B19" s="21">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21">
+        <v>54</v>
+      </c>
+      <c r="E19" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
         <v>45065</v>
       </c>
       <c r="B20" s="29"/>
@@ -2838,8 +2818,8 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
         <v>45066</v>
       </c>
       <c r="B21" s="27"/>
@@ -2847,8 +2827,8 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
         <v>45067</v>
       </c>
       <c r="B22" s="27"/>
@@ -2856,8 +2836,8 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
         <v>45068</v>
       </c>
       <c r="B23" s="27"/>
@@ -2865,8 +2845,8 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
         <v>45069</v>
       </c>
       <c r="B24" s="27"/>
@@ -2874,8 +2854,8 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
         <v>45070</v>
       </c>
       <c r="B25" s="29"/>
@@ -2883,8 +2863,8 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
         <v>45071</v>
       </c>
       <c r="B26" s="27"/>
@@ -2892,8 +2872,8 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
         <v>45072</v>
       </c>
       <c r="B27" s="27"/>
@@ -2901,8 +2881,8 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
         <v>45073</v>
       </c>
       <c r="B28" s="27"/>
@@ -2910,8 +2890,8 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
         <v>45074</v>
       </c>
       <c r="B29" s="27"/>
@@ -2919,8 +2899,8 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
         <v>45075</v>
       </c>
       <c r="B30" s="27"/>
@@ -2928,8 +2908,8 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
         <v>45076</v>
       </c>
       <c r="B31" s="27"/>
@@ -2937,8 +2917,8 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
         <v>45077</v>
       </c>
       <c r="B32" s="27"/>
@@ -2946,17 +2926,17 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2971,16 +2951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6731FE-55C1-4DAD-9F83-201FE0BE1E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2995,217 +2975,217 @@
       </c>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="29"/>
       <c r="C14" s="28"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="29"/>
       <c r="C20" s="28"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="29"/>
       <c r="C25" s="28"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
@@ -3229,37 +3209,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4F78C7-DCD2-492F-B3E5-B7F41EDD0700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
@@ -3269,7 +3249,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>6</v>
       </c>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -2476,7 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3255,8 +3255,8 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="20">
-        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>531</v>
+        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D2F711-996E-4663-8230-95787ED9B61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDC2D94-F714-45B8-A811-1DCE9410419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,18 +244,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,6 +257,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,10 +1390,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1971,10 +1971,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -1986,10 +1986,10 @@
       <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -2239,10 +2239,10 @@
       <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
@@ -2254,10 +2254,10 @@
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -2512,19 +2512,19 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2533,13 +2533,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>45047</v>
       </c>
       <c r="B2" s="21">
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>45048</v>
       </c>
       <c r="B3" s="21">
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <v>45049</v>
       </c>
       <c r="B4" s="21">
@@ -2590,7 +2590,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>45050</v>
       </c>
       <c r="B5" s="21">
@@ -2607,7 +2607,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <v>45051</v>
       </c>
       <c r="B6" s="21">
@@ -2624,7 +2624,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>45052</v>
       </c>
       <c r="B7" s="21">
@@ -2641,7 +2641,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="32">
         <v>45053</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="32">
         <v>45054</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -2675,7 +2675,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="32">
         <v>45055</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -2692,7 +2692,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="32">
         <v>45056</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -2709,7 +2709,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <v>45057</v>
       </c>
       <c r="B12" s="21">
@@ -2726,7 +2726,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <v>45058</v>
       </c>
       <c r="B13" s="21">
@@ -2743,7 +2743,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="A14" s="31">
         <v>45059</v>
       </c>
       <c r="B14" s="21">
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="31">
         <v>45060</v>
       </c>
       <c r="B15" s="21">
@@ -2777,7 +2777,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <v>45061</v>
       </c>
       <c r="B16" s="21">
@@ -2794,7 +2794,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <v>45062</v>
       </c>
       <c r="B17" s="21">
@@ -2811,7 +2811,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <v>45063</v>
       </c>
       <c r="B18" s="21">
@@ -2828,25 +2828,41 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="31">
         <v>45064</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="21">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>10</v>
+      </c>
+      <c r="D19" s="21">
+        <v>54</v>
+      </c>
+      <c r="E19" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="31">
         <v>45065</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="21">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>10</v>
+      </c>
+      <c r="D20" s="21">
+        <v>54</v>
+      </c>
+      <c r="E20" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="A21" s="33">
         <v>45066</v>
       </c>
       <c r="B21" s="27"/>
@@ -2855,7 +2871,7 @@
       <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="A22" s="33">
         <v>45067</v>
       </c>
       <c r="B22" s="27"/>
@@ -2864,7 +2880,7 @@
       <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+      <c r="A23" s="33">
         <v>45068</v>
       </c>
       <c r="B23" s="27"/>
@@ -2873,7 +2889,7 @@
       <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="33">
         <v>45069</v>
       </c>
       <c r="B24" s="27"/>
@@ -2882,7 +2898,7 @@
       <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="A25" s="33">
         <v>45070</v>
       </c>
       <c r="B25" s="29"/>
@@ -2891,7 +2907,7 @@
       <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="33">
         <v>45071</v>
       </c>
       <c r="B26" s="27"/>
@@ -2900,7 +2916,7 @@
       <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="33">
         <v>45072</v>
       </c>
       <c r="B27" s="27"/>
@@ -2909,7 +2925,7 @@
       <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
+      <c r="A28" s="33">
         <v>45073</v>
       </c>
       <c r="B28" s="27"/>
@@ -2918,7 +2934,7 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="33">
         <v>45074</v>
       </c>
       <c r="B29" s="27"/>
@@ -2927,7 +2943,7 @@
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
+      <c r="A30" s="33">
         <v>45075</v>
       </c>
       <c r="B30" s="27"/>
@@ -2936,7 +2952,7 @@
       <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
+      <c r="A31" s="33">
         <v>45076</v>
       </c>
       <c r="B31" s="27"/>
@@ -2945,7 +2961,7 @@
       <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+      <c r="A32" s="33">
         <v>45077</v>
       </c>
       <c r="B32" s="27"/>
@@ -2954,16 +2970,16 @@
       <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2997,10 +3013,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
@@ -3260,27 +3276,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDC2D94-F714-45B8-A811-1DCE9410419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0AF02-E7FE-4567-9E64-CDEC35315F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2512,7 +2512,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,22 +2862,38 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>45066</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="21">
+        <v>54</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>45067</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="B22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -2975,11 +2991,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0AF02-E7FE-4567-9E64-CDEC35315F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EDEFD1-5654-4E0E-AF62-2C448D9AD4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +267,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2512,7 +2515,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="A21:C21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,13 +2899,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="39">
         <v>45068</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="21">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21">
+        <v>54</v>
+      </c>
+      <c r="E23" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -2991,11 +3002,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EDEFD1-5654-4E0E-AF62-2C448D9AD4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDABAB1-86D6-46E2-A6AF-40CEA0672475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,6 +257,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,9 +270,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1393,10 +1393,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1974,10 +1974,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -1989,10 +1989,10 @@
       <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -2242,10 +2242,10 @@
       <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
@@ -2257,10 +2257,10 @@
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -2514,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF362BD4-39C9-4977-8DE8-51CECB6AB543}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,10 +2536,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
@@ -2899,7 +2899,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+      <c r="A23" s="35">
         <v>45068</v>
       </c>
       <c r="B23" s="21">
@@ -2916,22 +2916,38 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="35">
         <v>45069</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="21">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>10</v>
+      </c>
+      <c r="D24" s="21">
+        <v>54</v>
+      </c>
+      <c r="E24" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="35">
         <v>45070</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="21">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11">
+        <v>10</v>
+      </c>
+      <c r="D25" s="21">
+        <v>54</v>
+      </c>
+      <c r="E25" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -3002,11 +3018,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3040,10 +3056,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
@@ -3303,27 +3319,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDABAB1-86D6-46E2-A6AF-40CEA0672475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75991F20-7E6F-4510-B692-46C173B2F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E25"/>
+      <selection activeCell="A25" sqref="A25:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,22 +2950,38 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="35">
         <v>45071</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>10</v>
+      </c>
+      <c r="D26" s="21">
+        <v>54</v>
+      </c>
+      <c r="E26" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="35">
         <v>45072</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="21">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>10</v>
+      </c>
+      <c r="D27" s="21">
+        <v>54</v>
+      </c>
+      <c r="E27" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -3018,11 +3034,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75991F20-7E6F-4510-B692-46C173B2F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60867E7F-77C6-4C93-B085-C9202B19136D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,22 +2984,38 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="35">
         <v>45073</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="21">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>10</v>
+      </c>
+      <c r="D28" s="21">
+        <v>54</v>
+      </c>
+      <c r="E28" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="32">
         <v>45074</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -3034,11 +3050,11 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B2:B31)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60867E7F-77C6-4C93-B085-C9202B19136D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F45AB-7C3C-402C-B568-A8E63A6D381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A29" sqref="A29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,13 +3018,21 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>45075</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="B30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="33">

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F45AB-7C3C-402C-B568-A8E63A6D381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C8A38-CC73-49BD-BFB1-B64919B6A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E30"/>
+      <selection activeCell="A30" sqref="A30:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,13 +3035,21 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="32">
         <v>45076</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="33">

--- a/CTR CRIS.xlsx
+++ b/CTR CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C8A38-CC73-49BD-BFB1-B64919B6A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AF85EE-B07A-463F-8993-472986A5BD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,9 +251,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1393,10 +1390,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1974,10 +1971,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -1989,10 +1986,10 @@
       <c r="C2" s="25">
         <v>17</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -2242,10 +2239,10 @@
       <c r="C17" s="25">
         <v>17</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
@@ -2257,10 +2254,10 @@
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -2514,13 +2511,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF362BD4-39C9-4977-8DE8-51CECB6AB543}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
@@ -2536,10 +2533,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
@@ -2899,7 +2896,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="A23" s="34">
         <v>45068</v>
       </c>
       <c r="B23" s="21">
@@ -2916,7 +2913,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="A24" s="34">
         <v>45069</v>
       </c>
       <c r="B24" s="21">
@@ -2933,7 +2930,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="34">
         <v>45070</v>
       </c>
       <c r="B25" s="21">
@@ -2950,7 +2947,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="A26" s="34">
         <v>45071</v>
       </c>
       <c r="B26" s="21">
@@ -2967,7 +2964,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="34">
         <v>45072</v>
       </c>
       <c r="B27" s="21">
@@ -2984,7 +2981,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
+      <c r="A28" s="34">
         <v>45073</v>
       </c>
       <c r="B28" s="21">
@@ -3052,13 +3049,21 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>45077</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
@@ -3069,7 +3074,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="7">
-        <f>SUM(C2:C31)</f>
+        <f>SUM(C2:C32)</f>
         <v>200</v>
       </c>
       <c r="D33" s="5"/>
@@ -3104,10 +3109,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
@@ -3367,27 +3372,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>
